--- a/out11.xlsx
+++ b/out11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,12 +493,12 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>xe-0/0/14</t>
+          <t>xe-0/0/0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,12 +530,12 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>xe-0/0/15</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,12 +567,12 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>xe-0/0/16</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,12 +604,12 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>xe-0/0/17</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,12 +641,12 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>xe-0/0/18</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,12 +678,12 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>xe-0/0/19</t>
+          <t>xe-0/0/40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,12 +715,12 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>xe-0/0/20</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,12 +752,12 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>xe-0/0/21</t>
+          <t>xe-0/0/42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -789,12 +789,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>xe-0/0/22</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -826,12 +826,12 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>xe-0/0/23</t>
+          <t>xe-0/0/44</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -863,12 +863,12 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>xe-0/0/24</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,12 +900,12 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>xe-0/0/25</t>
+          <t>xe-0/0/46</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -937,12 +937,12 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>xe-0/0/26</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -974,12 +974,12 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>xe-0/0/27</t>
+          <t>xe-0/0/48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1009,21 +1009,9 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>xe-0/0/28</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1032,7 +1020,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1046,21 +1034,9 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>xe-0/0/29</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1069,7 +1045,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1083,21 +1059,9 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>xe-0/0/30</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1106,7 +1070,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1120,21 +1084,9 @@
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>xe-0/0/31</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1143,7 +1095,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1157,21 +1109,9 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>xe-0/0/32</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1180,7 +1120,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1194,21 +1134,9 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>xe-0/0/33</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1217,7 +1145,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1231,21 +1159,9 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>xe-0/0/34</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1254,7 +1170,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1268,21 +1184,9 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>xe-0/0/35</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1291,7 +1195,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1305,21 +1209,9 @@
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>xe-0/0/36</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1328,7 +1220,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1342,21 +1234,9 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>xe-0/0/37</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1365,7 +1245,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1379,21 +1259,9 @@
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>xe-0/0/38</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1402,7 +1270,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1416,21 +1284,9 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>xe-0/0/39</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1439,7 +1295,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1453,21 +1309,9 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>xe-0/0/40</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1476,7 +1320,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1490,21 +1334,9 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>xe-0/0/41</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1513,12 +1345,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:0</t>
+          <t>11:0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1527,21 +1359,9 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>xe-0/0/42</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1550,12 +1370,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:1</t>
+          <t>11:1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1564,21 +1384,9 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>xe-0/0/43</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1587,12 +1395,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:0</t>
+          <t>12:0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1601,21 +1409,9 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>xe-0/0/44</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1624,12 +1420,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:1</t>
+          <t>12:1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1638,21 +1434,9 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>xe-0/0/45</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1661,12 +1445,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:0</t>
+          <t>13:0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1675,21 +1459,9 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>xe-0/0/46</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1698,12 +1470,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:1</t>
+          <t>13:1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1712,21 +1484,9 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>xe-0/0/47</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1735,7 +1495,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1749,21 +1509,9 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>xe-0/0/48</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1772,7 +1520,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1797,7 +1545,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1822,7 +1570,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1847,7 +1595,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1872,7 +1620,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1897,12 +1645,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:0</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1922,12 +1670,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:1</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1947,12 +1695,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21:0</t>
+          <t>20:0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1972,12 +1720,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>21:1</t>
+          <t>20:1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1997,12 +1745,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>22:0</t>
+          <t>21:0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2022,12 +1770,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22:1</t>
+          <t>21:1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2047,7 +1795,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2072,7 +1820,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2097,7 +1845,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2122,7 +1870,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2147,7 +1895,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2172,7 +1920,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2197,7 +1945,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2222,7 +1970,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2247,7 +1995,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2272,7 +2020,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2297,7 +2045,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2322,7 +2070,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2347,7 +2095,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2372,7 +2120,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2397,7 +2145,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2422,7 +2170,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2447,7 +2195,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2472,7 +2220,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2497,7 +2245,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2522,7 +2270,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2547,7 +2295,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2572,7 +2320,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2597,7 +2345,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2622,7 +2370,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2647,7 +2395,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2672,7 +2420,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2697,7 +2445,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2722,7 +2470,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2747,7 +2495,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2772,7 +2520,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2797,7 +2545,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2822,7 +2570,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2847,7 +2595,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2872,7 +2620,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2897,12 +2645,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>40:0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2922,12 +2670,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>40:1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2947,12 +2695,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>40:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2972,12 +2720,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>40:1</t>
+          <t>41:1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2997,12 +2745,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>42:0</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3022,12 +2770,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>41:1</t>
+          <t>42:1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3047,12 +2795,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>42:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3072,12 +2820,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>42:1</t>
+          <t>43:1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3097,12 +2845,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>44:0</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3122,12 +2870,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>43:1</t>
+          <t>44:1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3147,12 +2895,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>44:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3172,12 +2920,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>44:1</t>
+          <t>45:1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3197,12 +2945,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>46:0</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3222,12 +2970,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>45:1</t>
+          <t>46:1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3247,12 +2995,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>46:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3272,12 +3020,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>46:1</t>
+          <t>47:1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3297,12 +3045,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>47:0</t>
+          <t>48:0</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3322,12 +3070,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>47:1</t>
+          <t>48:1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3347,12 +3095,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>48:0</t>
+          <t>49:0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3372,12 +3120,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>48:1</t>
+          <t>49:1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3397,12 +3145,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>49:0</t>
+          <t>50:0</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3422,12 +3170,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>49:1</t>
+          <t>50:1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3447,12 +3195,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4:0</t>
+          <t>51:0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3472,12 +3220,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4:1</t>
+          <t>51:1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3497,12 +3245,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>50:0</t>
+          <t>52:0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3522,12 +3270,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>50:1</t>
+          <t>52:1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3547,12 +3295,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>51:0</t>
+          <t>53:0</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3572,12 +3320,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>51:1</t>
+          <t>53:1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3597,12 +3345,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>52:0</t>
+          <t>54:0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3622,12 +3370,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>52:1</t>
+          <t>54:1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3647,12 +3395,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>53:0</t>
+          <t>55:0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3672,12 +3420,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>53:1</t>
+          <t>55:1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3697,12 +3445,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>54:0</t>
+          <t>56:0</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3722,12 +3470,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>54:1</t>
+          <t>56:1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3747,12 +3495,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>55:0</t>
+          <t>57:0</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3772,12 +3520,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>55:1</t>
+          <t>57:1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3797,12 +3545,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>56:0</t>
+          <t>58:0</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3822,12 +3570,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>56:1</t>
+          <t>58:1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3847,12 +3595,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>57:0</t>
+          <t>59:0</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3872,12 +3620,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>57:1</t>
+          <t>59:1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3897,12 +3645,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>58:0</t>
+          <t>60:0</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3922,12 +3670,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>58:1</t>
+          <t>60:1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3947,12 +3695,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>59:0</t>
+          <t>61:0</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3972,12 +3720,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>59:1</t>
+          <t>61:1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3997,12 +3745,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>60:0</t>
+          <t>62:0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4022,12 +3770,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>60:1</t>
+          <t>62:1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4047,12 +3795,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>61:0</t>
+          <t>63:0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4072,12 +3820,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>61:1</t>
+          <t>63:1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4097,12 +3845,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>62:0</t>
+          <t>64:0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4122,12 +3870,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>62:1</t>
+          <t>64:1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4147,12 +3895,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>63:0</t>
+          <t>65:0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4172,12 +3920,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>63:1</t>
+          <t>65:1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4197,12 +3945,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>64:0</t>
+          <t>66:0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4222,12 +3970,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>64:1</t>
+          <t>66:1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4247,12 +3995,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>65:0</t>
+          <t>67:0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4272,12 +4020,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>65:1</t>
+          <t>67:1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4297,12 +4045,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>66:0</t>
+          <t>68:0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4322,12 +4070,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>66:1</t>
+          <t>68:1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4347,12 +4095,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>67:0</t>
+          <t>69:0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4372,12 +4120,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>67:1</t>
+          <t>69:1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4397,12 +4145,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>68:0</t>
+          <t>6:0</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4422,12 +4170,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>68:1</t>
+          <t>6:1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4447,12 +4195,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>69:0</t>
+          <t>70:0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4472,12 +4220,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>69:1</t>
+          <t>70:1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4497,12 +4245,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6:0</t>
+          <t>71:0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4522,12 +4270,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>6:1</t>
+          <t>71:1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4547,12 +4295,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>70:0</t>
+          <t>72:0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4572,12 +4320,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>70:1</t>
+          <t>72:1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4597,12 +4345,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>71:0</t>
+          <t>73:0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4622,12 +4370,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>71:1</t>
+          <t>73:1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4647,12 +4395,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>72:0</t>
+          <t>74:0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4672,12 +4420,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>72:1</t>
+          <t>74:1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4697,12 +4445,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>73:0</t>
+          <t>75:0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4722,12 +4470,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>73:1</t>
+          <t>75:1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4747,12 +4495,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>74:0</t>
+          <t>76:0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4772,12 +4520,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>74:1</t>
+          <t>76:1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4797,12 +4545,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>75:0</t>
+          <t>77:0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4822,12 +4570,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>75:1</t>
+          <t>77:1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4847,12 +4595,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>76:0</t>
+          <t>78:0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4872,12 +4620,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>76:1</t>
+          <t>78:1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4897,12 +4645,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>77:0</t>
+          <t>79:0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4922,12 +4670,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>77:1</t>
+          <t>79:1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4947,12 +4695,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>78:0</t>
+          <t>7:0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4972,12 +4720,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>78:1</t>
+          <t>7:1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4997,12 +4745,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>79:0</t>
+          <t>80:0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5022,12 +4770,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>79:1</t>
+          <t>80:1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5047,12 +4795,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>80:0</t>
+          <t>81:0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5072,12 +4820,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>80:1</t>
+          <t>81:1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5097,12 +4845,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>81:0</t>
+          <t>82:0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5122,12 +4870,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>81:1</t>
+          <t>82:1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5147,12 +4895,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>82:0</t>
+          <t>83:0</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5172,12 +4920,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>82:1</t>
+          <t>83:1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5197,12 +4945,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>83:0</t>
+          <t>84:0</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5222,12 +4970,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>83:1</t>
+          <t>84:1</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5247,12 +4995,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>84:0</t>
+          <t>85:0</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5272,12 +5020,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>84:1</t>
+          <t>85:1</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5297,12 +5045,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>85:0</t>
+          <t>86:0</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5322,12 +5070,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>85:1</t>
+          <t>86:1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5347,12 +5095,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>86:0</t>
+          <t>87:0</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5372,12 +5120,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>86:1</t>
+          <t>87:1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5397,12 +5145,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>87:0</t>
+          <t>88:0</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5422,12 +5170,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>87:1</t>
+          <t>88:1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5447,12 +5195,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>88:0</t>
+          <t>89:0</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5472,12 +5220,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>88:1</t>
+          <t>89:1</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5497,12 +5245,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>89:0</t>
+          <t>8:0</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5522,12 +5270,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>89:1</t>
+          <t>8:1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5547,12 +5295,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>8:0</t>
+          <t>90:0</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5572,12 +5320,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>8:1</t>
+          <t>90:1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5597,12 +5345,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>90:0</t>
+          <t>91:0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5622,12 +5370,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>90:1</t>
+          <t>91:1</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5647,12 +5395,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>91:0</t>
+          <t>92:0</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5672,12 +5420,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>91:1</t>
+          <t>92:1</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5697,12 +5445,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>92:0</t>
+          <t>93:0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5722,12 +5470,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>92:1</t>
+          <t>93:1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5747,12 +5495,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>93:0</t>
+          <t>94:0</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5772,12 +5520,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>93:1</t>
+          <t>94:1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5797,12 +5545,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>94:0</t>
+          <t>95:0</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5822,12 +5570,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>94:1</t>
+          <t>95:1</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5847,12 +5595,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>95:0</t>
+          <t>96:0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5872,12 +5620,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>95:1</t>
+          <t>96:1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5897,12 +5645,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>96:0</t>
+          <t>97:0</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5922,12 +5670,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>96:1</t>
+          <t>97:1</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5947,12 +5695,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>97:0</t>
+          <t>98:0</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5972,12 +5720,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>97:1</t>
+          <t>98:1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5997,12 +5745,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>98:0</t>
+          <t>99:0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6022,12 +5770,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>98:1</t>
+          <t>99:1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6047,12 +5795,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>99:0</t>
+          <t>9:0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6072,12 +5820,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>99:1</t>
+          <t>9:1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6091,56 +5839,6 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>9:0</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>9:1</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out11.xlsx
+++ b/out11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Puerto</t>
+          <t>Puerto COS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -449,26 +449,20 @@
           <t>ptp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>0</v>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dispositivo DAAS</t>
+        </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Dispositivo DAAS</t>
+          <t>Puerto DAAS</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Puerto</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>Unnamed: 5</t>
         </is>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -477,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,23 +484,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>xe-0/0/0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,23 +519,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>xe-0/0/36</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -551,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,23 +554,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -588,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,23 +589,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>xe-0/0/38</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -625,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,23 +624,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,23 +659,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>xe-0/0/40</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -699,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,23 +694,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -736,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,23 +729,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/32</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>xe-0/0/42</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -773,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,23 +764,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -810,7 +786,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -823,23 +799,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>xe-0/0/44</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -847,7 +821,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,23 +834,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -884,7 +856,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -897,23 +869,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>xe-0/0/46</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -921,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,23 +904,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -958,7 +926,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -971,23 +939,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>xe-0/0/48</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -995,7 +961,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,11 +974,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>xe-0/0/39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1020,7 +996,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1033,11 +1009,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>xe-0/0/40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1045,7 +1031,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1058,11 +1044,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>xe-0/0/41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,7 +1066,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1083,11 +1079,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>xe-0/0/42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1095,7 +1101,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1108,11 +1114,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>xe-0/0/43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1120,7 +1136,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1133,11 +1149,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>xe-0/0/44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1145,7 +1171,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1158,11 +1184,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>xe-0/0/45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1170,7 +1206,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1183,11 +1219,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>xe-0/0/46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1195,7 +1241,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1208,11 +1254,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>xe-0/0/47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1220,7 +1276,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1233,11 +1289,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>xe-0/0/48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1245,7 +1311,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1258,11 +1324,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>xe-0/0/0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1270,7 +1346,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1283,11 +1359,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>xe-0/0/1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1295,7 +1381,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1308,11 +1394,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>xe-0/0/10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1320,7 +1416,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1333,11 +1429,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>xe-0/0/11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1345,7 +1451,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1358,11 +1464,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>xe-0/0/12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1370,7 +1486,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1383,11 +1499,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>xe-0/0/13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1395,7 +1521,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1408,11 +1534,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>xe-0/0/14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1420,7 +1556,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1433,11 +1569,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>xe-0/0/15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1445,7 +1591,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1458,11 +1604,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>xe-0/0/16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1470,7 +1626,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1483,11 +1639,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>xe-0/0/17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1495,12 +1661,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:0</t>
+          <t>14:0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1508,11 +1674,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>xe-0/0/18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1520,12 +1696,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:1</t>
+          <t>14:1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1533,11 +1709,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>xe-0/0/19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1545,12 +1731,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:0</t>
+          <t>15:0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1558,11 +1744,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>xe-0/0/2</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1570,12 +1766,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:1</t>
+          <t>15:1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1583,11 +1779,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>xe-0/0/20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1595,7 +1801,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1608,11 +1814,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>xe-0/0/21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1620,7 +1836,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1633,11 +1849,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>xe-0/0/22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1645,12 +1871,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>20:0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1658,11 +1884,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>xe-0/0/23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1670,12 +1906,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>20:1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1683,11 +1919,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>xe-0/0/24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1695,12 +1941,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:0</t>
+          <t>21:0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1708,11 +1954,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>xe-0/0/25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1720,12 +1976,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:1</t>
+          <t>21:1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1733,11 +1989,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>xe-0/0/26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1745,12 +2011,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21:0</t>
+          <t>22:0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1758,11 +2024,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>xe-0/0/27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1770,12 +2046,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21:1</t>
+          <t>22:1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1783,11 +2059,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>xe-0/0/28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1795,7 +2081,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1808,11 +2094,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>xe-0/0/29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1820,7 +2116,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1833,11 +2129,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>xe-0/0/3</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1845,7 +2151,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1858,11 +2164,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>xe-0/0/30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1870,7 +2186,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1883,11 +2199,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>xe-0/0/31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1895,7 +2221,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1908,11 +2234,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>xe-0/0/32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1920,7 +2256,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1933,11 +2269,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>xe-0/0/33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1945,7 +2291,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1958,11 +2304,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>xe-0/0/34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,7 +2326,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1983,11 +2339,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>xe-0/0/35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1995,7 +2361,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2008,11 +2374,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>xe-0/0/36</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,7 +2396,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2033,11 +2409,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>xe-0/0/37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2045,7 +2431,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2058,11 +2444,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>xe-0/0/38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2070,7 +2466,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2083,11 +2479,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>xe-0/0/39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2095,7 +2501,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2108,11 +2514,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>xe-0/0/4</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2120,7 +2536,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2133,11 +2549,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>xe-0/0/40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2145,7 +2571,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2158,11 +2584,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>xe-0/0/41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2170,7 +2606,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2183,11 +2619,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>xe-0/0/42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2195,7 +2641,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2208,11 +2654,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>xe-0/0/43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2220,7 +2676,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2233,11 +2689,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>xe-0/0/44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2245,7 +2711,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2258,11 +2724,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>xe-0/0/45</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2270,7 +2746,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2283,11 +2759,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>xe-0/0/46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2295,7 +2781,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2308,11 +2794,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>xe-0/0/47</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2320,7 +2816,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2333,11 +2829,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>xe-0/0/48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2345,7 +2851,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2358,11 +2864,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>xe-0/0/5</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2370,7 +2886,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2383,11 +2899,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>xe-0/0/6</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2395,7 +2921,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2408,11 +2934,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>xe-0/0/7</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2420,7 +2956,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2433,11 +2969,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>xe-0/0/8</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2445,7 +2991,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2458,11 +3004,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>xe-0/0/9</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2470,7 +3026,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2486,8 +3042,6 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2495,7 +3049,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2511,8 +3065,6 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2520,7 +3072,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2536,8 +3088,6 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2545,7 +3095,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2561,8 +3111,6 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2570,7 +3118,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2586,8 +3134,6 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2595,7 +3141,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2611,8 +3157,6 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2620,7 +3164,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2636,8 +3180,6 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2645,12 +3187,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>40:0</t>
+          <t>3:0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2661,8 +3203,6 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2670,12 +3210,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>40:1</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2686,8 +3226,6 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2695,12 +3233,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>40:0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2711,8 +3249,6 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2720,12 +3256,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>41:1</t>
+          <t>40:1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2736,8 +3272,6 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2745,12 +3279,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>42:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2761,8 +3295,6 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2770,12 +3302,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>42:1</t>
+          <t>41:1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2786,8 +3318,6 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2795,12 +3325,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>42:0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2811,8 +3341,6 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2820,12 +3348,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>43:1</t>
+          <t>42:1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2836,8 +3364,6 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2845,12 +3371,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>44:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2861,8 +3387,6 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2870,12 +3394,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>44:1</t>
+          <t>43:1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2886,8 +3410,6 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2895,12 +3417,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>44:0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2911,8 +3433,6 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2920,12 +3440,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>45:1</t>
+          <t>44:1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2936,8 +3456,6 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2945,12 +3463,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>46:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2961,8 +3479,6 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2970,12 +3486,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>46:1</t>
+          <t>45:1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2986,8 +3502,6 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2995,12 +3509,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>47:0</t>
+          <t>46:0</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3011,8 +3525,6 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3020,12 +3532,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>47:1</t>
+          <t>46:1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3036,8 +3548,6 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3045,12 +3555,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>48:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3061,8 +3571,6 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3070,12 +3578,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>48:1</t>
+          <t>47:1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3086,8 +3594,6 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3095,12 +3601,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>49:0</t>
+          <t>48:0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3111,8 +3617,6 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3120,12 +3624,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>49:1</t>
+          <t>48:1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3136,8 +3640,6 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3145,12 +3647,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>50:0</t>
+          <t>49:0</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3161,8 +3663,6 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3170,12 +3670,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>50:1</t>
+          <t>49:1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3186,8 +3686,6 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3195,12 +3693,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>51:0</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3211,8 +3709,6 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3220,12 +3716,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>51:1</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3236,8 +3732,6 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3245,12 +3739,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>52:0</t>
+          <t>50:0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3261,8 +3755,6 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3270,12 +3762,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>52:1</t>
+          <t>50:1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3286,8 +3778,6 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3295,12 +3785,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>53:0</t>
+          <t>51:0</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3311,8 +3801,6 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3320,12 +3808,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>53:1</t>
+          <t>51:1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3336,8 +3824,6 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3345,12 +3831,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>54:0</t>
+          <t>52:0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3361,8 +3847,6 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3370,12 +3854,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>54:1</t>
+          <t>52:1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3386,8 +3870,6 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3395,12 +3877,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>55:0</t>
+          <t>53:0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3411,8 +3893,6 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3420,12 +3900,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>55:1</t>
+          <t>53:1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3436,8 +3916,6 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3445,12 +3923,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>56:0</t>
+          <t>54:0</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3461,8 +3939,6 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3470,12 +3946,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>56:1</t>
+          <t>54:1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3486,8 +3962,6 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3495,12 +3969,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>57:0</t>
+          <t>55:0</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3511,8 +3985,6 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3520,12 +3992,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>57:1</t>
+          <t>55:1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3536,8 +4008,6 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3545,12 +4015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>58:0</t>
+          <t>56:0</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3561,8 +4031,6 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3570,12 +4038,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>58:1</t>
+          <t>56:1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3586,8 +4054,6 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3595,12 +4061,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>59:0</t>
+          <t>57:0</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3611,8 +4077,6 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3620,12 +4084,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>59:1</t>
+          <t>57:1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3636,8 +4100,6 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3645,12 +4107,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>60:0</t>
+          <t>58:0</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3661,8 +4123,6 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3670,12 +4130,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>60:1</t>
+          <t>58:1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3686,8 +4146,6 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3695,12 +4153,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>61:0</t>
+          <t>59:0</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3711,8 +4169,6 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3720,12 +4176,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>61:1</t>
+          <t>59:1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3736,8 +4192,6 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3745,12 +4199,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>62:0</t>
+          <t>5:0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3761,8 +4215,6 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3770,12 +4222,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>62:1</t>
+          <t>5:1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3786,8 +4238,6 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3795,12 +4245,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>63:0</t>
+          <t>60:0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3811,8 +4261,6 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3820,12 +4268,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>63:1</t>
+          <t>60:1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3836,8 +4284,6 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3845,12 +4291,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>64:0</t>
+          <t>61:0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3861,8 +4307,6 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3870,12 +4314,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>64:1</t>
+          <t>61:1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3886,8 +4330,6 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3895,12 +4337,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>65:0</t>
+          <t>62:0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3911,8 +4353,6 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3920,12 +4360,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>65:1</t>
+          <t>62:1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3936,8 +4376,6 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3945,12 +4383,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>66:0</t>
+          <t>63:0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3961,8 +4399,6 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3970,12 +4406,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>66:1</t>
+          <t>63:1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3986,8 +4422,6 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3995,12 +4429,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>67:0</t>
+          <t>64:0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4011,8 +4445,6 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4020,12 +4452,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>67:1</t>
+          <t>64:1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4036,8 +4468,6 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4045,12 +4475,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>68:0</t>
+          <t>65:0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4061,8 +4491,6 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4070,12 +4498,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>68:1</t>
+          <t>65:1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4086,8 +4514,6 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4095,12 +4521,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>69:0</t>
+          <t>66:0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4111,8 +4537,6 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4120,12 +4544,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>69:1</t>
+          <t>66:1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4136,8 +4560,6 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4145,12 +4567,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>6:0</t>
+          <t>67:0</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4161,8 +4583,6 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4170,12 +4590,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>6:1</t>
+          <t>67:1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4186,8 +4606,6 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4195,12 +4613,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>70:0</t>
+          <t>68:0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4211,8 +4629,6 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4220,12 +4636,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>70:1</t>
+          <t>68:1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4236,8 +4652,6 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4245,12 +4659,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>71:0</t>
+          <t>69:0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4261,8 +4675,6 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4270,12 +4682,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>71:1</t>
+          <t>69:1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4286,8 +4698,6 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4295,12 +4705,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>72:0</t>
+          <t>6:0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4311,8 +4721,6 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4320,12 +4728,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>72:1</t>
+          <t>6:1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4336,8 +4744,6 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4345,12 +4751,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>73:0</t>
+          <t>70:0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4361,8 +4767,6 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4370,12 +4774,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>73:1</t>
+          <t>70:1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4386,8 +4790,6 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4395,12 +4797,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>74:0</t>
+          <t>71:0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4411,8 +4813,6 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4420,12 +4820,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>74:1</t>
+          <t>71:1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4436,8 +4836,6 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4445,12 +4843,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>75:0</t>
+          <t>72:0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4461,8 +4859,6 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4470,12 +4866,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>75:1</t>
+          <t>72:1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4486,8 +4882,6 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4495,12 +4889,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>76:0</t>
+          <t>73:0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4511,8 +4905,6 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4520,12 +4912,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>76:1</t>
+          <t>73:1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4536,8 +4928,6 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4545,12 +4935,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>77:0</t>
+          <t>74:0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4561,8 +4951,6 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4570,12 +4958,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>77:1</t>
+          <t>74:1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4586,8 +4974,6 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4595,12 +4981,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>78:0</t>
+          <t>75:0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4611,8 +4997,6 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4620,12 +5004,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>78:1</t>
+          <t>75:1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4636,8 +5020,6 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4645,12 +5027,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>79:0</t>
+          <t>76:0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4661,8 +5043,6 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4670,12 +5050,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>79:1</t>
+          <t>76:1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4686,8 +5066,6 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4695,12 +5073,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>7:0</t>
+          <t>77:0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4711,8 +5089,6 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4720,12 +5096,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>7:1</t>
+          <t>77:1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4736,8 +5112,6 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4745,12 +5119,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>80:0</t>
+          <t>78:0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4761,8 +5135,6 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4770,12 +5142,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>80:1</t>
+          <t>78:1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4786,8 +5158,6 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4795,12 +5165,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>81:0</t>
+          <t>79:0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4811,8 +5181,6 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4820,12 +5188,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>81:1</t>
+          <t>79:1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4836,8 +5204,6 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4845,12 +5211,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>82:0</t>
+          <t>7:0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4861,8 +5227,6 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4870,12 +5234,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>82:1</t>
+          <t>7:1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4886,8 +5250,6 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4895,12 +5257,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>83:0</t>
+          <t>80:0</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4911,8 +5273,6 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4920,12 +5280,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>83:1</t>
+          <t>80:1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4936,8 +5296,6 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4945,12 +5303,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>84:0</t>
+          <t>81:0</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4961,8 +5319,6 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4970,12 +5326,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>84:1</t>
+          <t>81:1</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4986,8 +5342,6 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4995,12 +5349,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>85:0</t>
+          <t>82:0</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5011,8 +5365,6 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -5020,12 +5372,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>85:1</t>
+          <t>82:1</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5036,8 +5388,6 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5045,12 +5395,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>86:0</t>
+          <t>83:0</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5061,8 +5411,6 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5070,12 +5418,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>86:1</t>
+          <t>83:1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5086,8 +5434,6 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5095,12 +5441,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>87:0</t>
+          <t>84:0</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5111,8 +5457,6 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -5120,12 +5464,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>87:1</t>
+          <t>84:1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5136,8 +5480,6 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -5145,12 +5487,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>88:0</t>
+          <t>85:0</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5161,8 +5503,6 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5170,12 +5510,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>88:1</t>
+          <t>85:1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5186,8 +5526,6 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5195,12 +5533,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>89:0</t>
+          <t>86:0</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5211,8 +5549,6 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5220,12 +5556,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>89:1</t>
+          <t>86:1</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5236,8 +5572,6 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5245,12 +5579,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>8:0</t>
+          <t>87:0</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5261,8 +5595,6 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5270,12 +5602,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>8:1</t>
+          <t>87:1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5286,8 +5618,6 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5295,12 +5625,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>90:0</t>
+          <t>88:0</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5311,8 +5641,6 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5320,12 +5648,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>90:1</t>
+          <t>88:1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5336,8 +5664,6 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5345,12 +5671,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>91:0</t>
+          <t>89:0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5361,8 +5687,6 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5370,12 +5694,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>91:1</t>
+          <t>89:1</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5386,8 +5710,6 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5395,12 +5717,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>92:0</t>
+          <t>8:0</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5411,8 +5733,6 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5420,12 +5740,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>92:1</t>
+          <t>8:1</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5436,8 +5756,6 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5445,12 +5763,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>93:0</t>
+          <t>90:0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5461,8 +5779,6 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5470,12 +5786,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>93:1</t>
+          <t>90:1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5486,8 +5802,6 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5495,12 +5809,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>94:0</t>
+          <t>91:0</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5511,8 +5825,6 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5520,12 +5832,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>94:1</t>
+          <t>91:1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5536,8 +5848,6 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5545,12 +5855,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>95:0</t>
+          <t>92:0</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5561,8 +5871,6 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5570,12 +5878,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>95:1</t>
+          <t>92:1</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5586,8 +5894,6 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5595,12 +5901,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>96:0</t>
+          <t>93:0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5611,8 +5917,6 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5620,12 +5924,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>96:1</t>
+          <t>93:1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5636,8 +5940,6 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5645,12 +5947,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>97:0</t>
+          <t>94:0</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5661,8 +5963,6 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5670,12 +5970,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>97:1</t>
+          <t>94:1</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5686,8 +5986,6 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5695,12 +5993,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>98:0</t>
+          <t>95:0</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5711,8 +6009,6 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5720,12 +6016,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>98:1</t>
+          <t>95:1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5736,8 +6032,6 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5745,12 +6039,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>99:0</t>
+          <t>96:0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5761,8 +6055,6 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5770,12 +6062,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>99:1</t>
+          <t>96:1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5786,8 +6078,6 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5795,12 +6085,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>9:0</t>
+          <t>97:0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5811,8 +6101,6 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5820,12 +6108,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>9:1</t>
+          <t>97:1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5836,8 +6124,144 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>98:0</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>98:1</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>99:0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>99:1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>9:0</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>9:1</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/out11.xlsx
+++ b/out11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xe-0/0/0</t>
+          <t>xe-0/0/14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xe-0/0/26</t>
+          <t>xe-0/0/15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xe-0/0/27</t>
+          <t>xe-0/0/16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>xe-0/0/28</t>
+          <t>xe-0/0/17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xe-0/0/29</t>
+          <t>xe-0/0/18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>xe-0/0/30</t>
+          <t>xe-0/0/19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>xe-0/0/31</t>
+          <t>xe-0/0/20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>xe-0/0/32</t>
+          <t>xe-0/0/21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>xe-0/0/33</t>
+          <t>xe-0/0/22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>xe-0/0/34</t>
+          <t>xe-0/0/23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>xe-0/0/35</t>
+          <t>xe-0/0/24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>xe-0/0/36</t>
+          <t>xe-0/0/25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/26</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>xe-0/0/38</t>
+          <t>xe-0/0/27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>xe-0/0/40</t>
+          <t>xe-0/0/29</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>xe-0/0/42</t>
+          <t>xe-0/0/31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/32</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>xe-0/0/44</t>
+          <t>xe-0/0/33</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/34</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>xe-0/0/46</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>xe-0/0/48</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>xe-0/0/0</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>xe-0/0/1</t>
+          <t>xe-0/0/40</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>xe-0/0/10</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>xe-0/0/11</t>
+          <t>xe-0/0/42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11:0</t>
+          <t>14:0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>xe-0/0/12</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:1</t>
+          <t>14:1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>xe-0/0/13</t>
+          <t>xe-0/0/44</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:0</t>
+          <t>15:0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>xe-0/0/14</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:1</t>
+          <t>15:1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>xe-0/0/15</t>
+          <t>xe-0/0/46</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13:0</t>
+          <t>16:0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1606,12 +1606,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>xe-0/0/16</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:1</t>
+          <t>16:1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>xe-0/0/17</t>
+          <t>xe-0/0/48</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:0</t>
+          <t>17:0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1674,21 +1674,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>xe-0/0/18</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1696,12 +1684,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:1</t>
+          <t>17:1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1709,21 +1697,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>xe-0/0/19</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1731,12 +1707,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15:0</t>
+          <t>18:0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1744,21 +1720,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>xe-0/0/2</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1766,12 +1730,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:1</t>
+          <t>18:1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1779,21 +1743,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>xe-0/0/20</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1801,7 +1753,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1814,21 +1766,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>xe-0/0/21</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1836,7 +1776,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1849,21 +1789,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>xe-0/0/22</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1871,7 +1799,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1884,21 +1812,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>xe-0/0/23</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1906,7 +1822,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1919,21 +1835,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>xe-0/0/24</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1941,7 +1845,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1954,21 +1858,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>xe-0/0/25</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1976,7 +1868,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1989,21 +1881,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>xe-0/0/26</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2011,7 +1891,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2024,21 +1904,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>xe-0/0/27</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2046,7 +1914,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2059,21 +1927,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>xe-0/0/28</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2081,7 +1937,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2094,21 +1950,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>xe-0/0/29</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2116,7 +1960,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2129,21 +1973,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>xe-0/0/3</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2151,7 +1983,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2164,21 +1996,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>xe-0/0/30</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2186,7 +2006,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2199,21 +2019,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>xe-0/0/31</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2221,7 +2029,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2234,21 +2042,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>xe-0/0/32</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2256,7 +2052,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2269,21 +2065,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>xe-0/0/33</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2291,7 +2075,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2304,21 +2088,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>xe-0/0/34</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2326,7 +2098,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2339,21 +2111,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>xe-0/0/35</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2361,7 +2121,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2374,21 +2134,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>xe-0/0/36</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2396,7 +2144,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2409,21 +2157,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>xe-0/0/37</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2431,7 +2167,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2444,21 +2180,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>xe-0/0/38</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2466,7 +2190,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2479,21 +2203,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>xe-0/0/39</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2501,7 +2213,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2514,21 +2226,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>xe-0/0/4</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2536,7 +2236,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2549,21 +2249,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>xe-0/0/40</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2571,7 +2259,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2584,21 +2272,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>xe-0/0/41</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2606,7 +2282,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2619,21 +2295,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>xe-0/0/42</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2641,7 +2305,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2654,21 +2318,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>xe-0/0/43</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2676,7 +2328,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2689,21 +2341,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>xe-0/0/44</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2711,7 +2351,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2724,21 +2364,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>xe-0/0/45</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2746,7 +2374,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2759,21 +2387,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>xe-0/0/46</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2781,7 +2397,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2794,21 +2410,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>xe-0/0/47</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2816,7 +2420,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2829,21 +2433,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>xe-0/0/48</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2851,7 +2443,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2864,21 +2456,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>xe-0/0/5</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2886,7 +2466,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2899,21 +2479,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>xe-0/0/6</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2921,7 +2489,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2934,21 +2502,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>xe-0/0/7</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2956,7 +2512,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2969,21 +2525,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>xe-0/0/8</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2991,7 +2535,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3004,21 +2548,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>xe-0/0/9</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3026,7 +2558,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3049,7 +2581,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3072,7 +2604,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3095,7 +2627,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3118,7 +2650,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3141,7 +2673,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3164,7 +2696,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3187,7 +2719,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3210,7 +2742,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3233,7 +2765,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3256,7 +2788,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3279,7 +2811,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3302,7 +2834,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3325,7 +2857,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3348,7 +2880,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3371,7 +2903,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3394,7 +2926,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3417,7 +2949,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3440,7 +2972,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3463,7 +2995,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3486,7 +3018,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3509,7 +3041,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3532,7 +3064,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3555,7 +3087,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3578,7 +3110,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3601,7 +3133,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3624,7 +3156,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3647,7 +3179,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3670,7 +3202,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3693,7 +3225,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3716,7 +3248,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3739,7 +3271,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3762,7 +3294,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3785,7 +3317,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3808,7 +3340,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3831,7 +3363,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3854,7 +3386,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3877,7 +3409,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3900,7 +3432,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3923,7 +3455,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3946,7 +3478,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3969,7 +3501,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3992,7 +3524,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4015,7 +3547,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4038,7 +3570,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4061,7 +3593,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4084,7 +3616,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4107,7 +3639,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4130,7 +3662,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4153,7 +3685,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4176,7 +3708,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4199,12 +3731,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>5:0</t>
+          <t>60:0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4222,12 +3754,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5:1</t>
+          <t>60:1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4245,12 +3777,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>60:0</t>
+          <t>61:0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4268,12 +3800,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>60:1</t>
+          <t>61:1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4291,12 +3823,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>61:0</t>
+          <t>62:0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4314,12 +3846,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>61:1</t>
+          <t>62:1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4337,12 +3869,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>62:0</t>
+          <t>63:0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4360,12 +3892,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>62:1</t>
+          <t>63:1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4383,12 +3915,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>63:0</t>
+          <t>64:0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4406,12 +3938,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>63:1</t>
+          <t>64:1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4429,12 +3961,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>64:0</t>
+          <t>65:0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4452,12 +3984,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>64:1</t>
+          <t>65:1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4475,12 +4007,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>65:0</t>
+          <t>66:0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4498,12 +4030,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>65:1</t>
+          <t>66:1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4521,12 +4053,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>66:0</t>
+          <t>67:0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4544,12 +4076,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>66:1</t>
+          <t>67:1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4567,12 +4099,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>67:0</t>
+          <t>68:0</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4590,12 +4122,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>67:1</t>
+          <t>68:1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4613,12 +4145,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>68:0</t>
+          <t>69:0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4636,12 +4168,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>68:1</t>
+          <t>69:1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4659,12 +4191,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>69:0</t>
+          <t>6:0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4682,12 +4214,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>69:1</t>
+          <t>6:1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4705,12 +4237,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>6:0</t>
+          <t>70:0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4728,12 +4260,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>6:1</t>
+          <t>70:1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4751,12 +4283,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>70:0</t>
+          <t>71:0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4774,12 +4306,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>70:1</t>
+          <t>71:1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4797,12 +4329,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>71:0</t>
+          <t>72:0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4820,12 +4352,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>71:1</t>
+          <t>72:1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4843,12 +4375,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>72:0</t>
+          <t>73:0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4866,12 +4398,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>72:1</t>
+          <t>73:1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4889,12 +4421,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>73:0</t>
+          <t>74:0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4912,12 +4444,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>73:1</t>
+          <t>74:1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4935,12 +4467,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>74:0</t>
+          <t>75:0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4958,12 +4490,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>74:1</t>
+          <t>75:1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4981,12 +4513,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>75:0</t>
+          <t>76:0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5004,12 +4536,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>75:1</t>
+          <t>76:1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5027,12 +4559,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>76:0</t>
+          <t>77:0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5050,12 +4582,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>76:1</t>
+          <t>77:1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5073,12 +4605,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>77:0</t>
+          <t>78:0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5096,12 +4628,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>77:1</t>
+          <t>78:1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5119,12 +4651,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>78:0</t>
+          <t>79:0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5142,12 +4674,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>78:1</t>
+          <t>79:1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5165,12 +4697,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>79:0</t>
+          <t>80:0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5188,12 +4720,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>79:1</t>
+          <t>80:1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5211,12 +4743,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>7:0</t>
+          <t>81:0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5234,12 +4766,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>7:1</t>
+          <t>81:1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5257,12 +4789,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>80:0</t>
+          <t>82:0</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5280,12 +4812,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>80:1</t>
+          <t>82:1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5303,12 +4835,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>81:0</t>
+          <t>83:0</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5326,12 +4858,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>81:1</t>
+          <t>83:1</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5349,12 +4881,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>82:0</t>
+          <t>84:0</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5372,12 +4904,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>82:1</t>
+          <t>84:1</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5395,12 +4927,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>83:0</t>
+          <t>85:0</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5418,12 +4950,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>83:1</t>
+          <t>85:1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5441,12 +4973,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>84:0</t>
+          <t>86:0</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5464,12 +4996,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>84:1</t>
+          <t>86:1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5487,12 +5019,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>85:0</t>
+          <t>87:0</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5510,12 +5042,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>85:1</t>
+          <t>87:1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5533,12 +5065,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>86:0</t>
+          <t>88:0</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5556,12 +5088,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>86:1</t>
+          <t>88:1</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5579,12 +5111,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>87:0</t>
+          <t>89:0</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5602,12 +5134,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>87:1</t>
+          <t>89:1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5625,12 +5157,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>88:0</t>
+          <t>8:0</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5648,12 +5180,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>88:1</t>
+          <t>8:1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5671,12 +5203,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>89:0</t>
+          <t>90:0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5694,12 +5226,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>89:1</t>
+          <t>90:1</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5717,12 +5249,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>8:0</t>
+          <t>91:0</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5740,12 +5272,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>8:1</t>
+          <t>91:1</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5763,12 +5295,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>90:0</t>
+          <t>92:0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5786,12 +5318,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>90:1</t>
+          <t>92:1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5809,12 +5341,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>91:0</t>
+          <t>93:0</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5832,12 +5364,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>91:1</t>
+          <t>93:1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5855,12 +5387,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>92:0</t>
+          <t>94:0</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5878,12 +5410,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>92:1</t>
+          <t>94:1</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5901,12 +5433,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>93:0</t>
+          <t>95:0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5924,12 +5456,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>93:1</t>
+          <t>95:1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5947,12 +5479,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>94:0</t>
+          <t>96:0</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5970,12 +5502,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>94:1</t>
+          <t>96:1</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5993,12 +5525,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>95:0</t>
+          <t>97:0</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6016,12 +5548,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>95:1</t>
+          <t>97:1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6039,12 +5571,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>96:0</t>
+          <t>98:0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6062,12 +5594,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>96:1</t>
+          <t>98:1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6085,12 +5617,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>97:0</t>
+          <t>99:0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6108,12 +5640,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>97:1</t>
+          <t>99:1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6131,12 +5663,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>98:0</t>
+          <t>9:0</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6154,12 +5686,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>98:1</t>
+          <t>9:1</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6170,98 +5702,6 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>99:0</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>99:1</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>9:0</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>9:1</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/out11.xlsx
+++ b/out11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xe-0/0/14</t>
+          <t>xe-0/0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xe-0/0/15</t>
+          <t>xe-0/0/26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xe-0/0/16</t>
+          <t>xe-0/0/27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>xe-0/0/17</t>
+          <t>xe-0/0/28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xe-0/0/18</t>
+          <t>xe-0/0/29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>xe-0/0/19</t>
+          <t>xe-0/0/30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>xe-0/0/20</t>
+          <t>xe-0/0/31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>xe-0/0/21</t>
+          <t>xe-0/0/32</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>xe-0/0/22</t>
+          <t>xe-0/0/33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>xe-0/0/23</t>
+          <t>xe-0/0/34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>xe-0/0/24</t>
+          <t>xe-0/0/35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>xe-0/0/25</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>xe-0/0/26</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>xe-0/0/27</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>xe-0/0/28</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>xe-0/0/29</t>
+          <t>xe-0/0/40</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>xe-0/0/30</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>xe-0/0/31</t>
+          <t>xe-0/0/42</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>xe-0/0/32</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>xe-0/0/33</t>
+          <t>xe-0/0/44</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>xe-0/0/34</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>xe-0/0/36</t>
+          <t>xe-0/0/46</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>xe-0/0/38</t>
+          <t>xe-0/0/48</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>xe-0/0/40</t>
+          <t>xe-0/0/1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/10</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>xe-0/0/42</t>
+          <t>xe-0/0/11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:0</t>
+          <t>11:0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:1</t>
+          <t>11:1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>xe-0/0/44</t>
+          <t>xe-0/0/13</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:0</t>
+          <t>12:0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:1</t>
+          <t>12:1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>xe-0/0/46</t>
+          <t>xe-0/0/15</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:0</t>
+          <t>13:0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1606,12 +1606,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/16</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:1</t>
+          <t>13:1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>xe-0/0/48</t>
+          <t>xe-0/0/17</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:0</t>
+          <t>14:0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1674,9 +1674,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>xe-0/0/18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1684,12 +1696,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:1</t>
+          <t>14:1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1697,9 +1709,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>xe-0/0/19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1707,12 +1731,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:0</t>
+          <t>15:0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1720,9 +1744,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>xe-0/0/2</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1730,12 +1766,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:1</t>
+          <t>15:1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1743,9 +1779,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>xe-0/0/20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1753,7 +1801,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1766,9 +1814,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>xe-0/0/21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1776,7 +1836,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1789,9 +1849,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>xe-0/0/22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1799,7 +1871,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1812,9 +1884,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>xe-0/0/23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1822,7 +1906,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1835,9 +1919,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>xe-0/0/24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1845,7 +1941,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1858,9 +1954,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>xe-0/0/25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1868,7 +1976,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1881,9 +1989,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>xe-0/0/26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1891,7 +2011,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1904,9 +2024,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>xe-0/0/27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1914,7 +2046,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1927,9 +2059,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>xe-0/0/28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1937,7 +2081,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1950,9 +2094,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>xe-0/0/29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1960,7 +2116,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1973,9 +2129,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>xe-0/0/3</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1983,7 +2151,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1996,9 +2164,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>xe-0/0/30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2006,7 +2186,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2019,9 +2199,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>xe-0/0/31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2029,7 +2221,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2042,9 +2234,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>xe-0/0/32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2052,7 +2256,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2065,9 +2269,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>xe-0/0/33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2075,7 +2291,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2088,9 +2304,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>xe-0/0/34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2098,7 +2326,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2111,9 +2339,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>xe-0/0/35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2121,7 +2361,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2134,9 +2374,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>xe-0/0/36</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2144,7 +2396,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2157,9 +2409,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>xe-0/0/37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2167,7 +2431,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2180,9 +2444,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>xe-0/0/38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2190,7 +2466,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2203,9 +2479,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>xe-0/0/39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2213,7 +2501,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2226,9 +2514,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>xe-0/0/4</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2236,7 +2536,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2249,9 +2549,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>xe-0/0/40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2259,7 +2571,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2272,9 +2584,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>xe-0/0/41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2282,7 +2606,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2295,9 +2619,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>xe-0/0/42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2305,7 +2641,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2318,9 +2654,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>xe-0/0/43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2328,7 +2676,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2341,9 +2689,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>xe-0/0/44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2351,7 +2711,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2364,9 +2724,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>xe-0/0/45</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2374,7 +2746,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2387,9 +2759,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>xe-0/0/46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2397,7 +2781,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2410,9 +2794,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>xe-0/0/47</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2420,7 +2816,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2433,9 +2829,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>xe-0/0/48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2443,7 +2851,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2456,9 +2864,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>xe-0/0/5</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2466,7 +2886,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2479,9 +2899,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>xe-0/0/6</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2489,7 +2921,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2502,9 +2934,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>xe-0/0/7</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2512,7 +2956,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2525,9 +2969,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>xe-0/0/8</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2535,7 +2991,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2548,9 +3004,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>xe-0/0/9</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2558,7 +3026,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2581,7 +3049,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2604,7 +3072,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2627,7 +3095,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2650,7 +3118,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2673,7 +3141,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2696,7 +3164,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2719,7 +3187,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2742,7 +3210,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2765,7 +3233,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2788,7 +3256,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2811,7 +3279,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2834,7 +3302,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2857,7 +3325,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2880,7 +3348,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2903,7 +3371,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2926,7 +3394,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2949,7 +3417,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2972,7 +3440,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2995,7 +3463,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3018,7 +3486,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3041,7 +3509,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3064,7 +3532,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3087,7 +3555,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3110,7 +3578,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3133,7 +3601,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3156,7 +3624,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3179,7 +3647,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3202,7 +3670,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3225,7 +3693,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3248,7 +3716,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3271,7 +3739,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3294,7 +3762,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3317,7 +3785,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3340,7 +3808,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3363,7 +3831,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3386,7 +3854,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3409,7 +3877,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3432,7 +3900,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3455,7 +3923,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3478,7 +3946,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3501,7 +3969,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3524,7 +3992,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3547,7 +4015,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3570,7 +4038,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3593,7 +4061,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3616,7 +4084,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3639,7 +4107,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3662,7 +4130,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3685,7 +4153,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3708,7 +4176,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3731,12 +4199,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>60:0</t>
+          <t>5:0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3754,12 +4222,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>60:1</t>
+          <t>5:1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3777,12 +4245,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>61:0</t>
+          <t>60:0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3800,12 +4268,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>61:1</t>
+          <t>60:1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3823,12 +4291,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>62:0</t>
+          <t>61:0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3846,12 +4314,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>62:1</t>
+          <t>61:1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3869,12 +4337,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>63:0</t>
+          <t>62:0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3892,12 +4360,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>63:1</t>
+          <t>62:1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3915,12 +4383,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>64:0</t>
+          <t>63:0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3938,12 +4406,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>64:1</t>
+          <t>63:1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3961,12 +4429,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>65:0</t>
+          <t>64:0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3984,12 +4452,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>65:1</t>
+          <t>64:1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4007,12 +4475,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>66:0</t>
+          <t>65:0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4030,12 +4498,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>66:1</t>
+          <t>65:1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4053,12 +4521,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>67:0</t>
+          <t>66:0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4076,12 +4544,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>67:1</t>
+          <t>66:1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4099,12 +4567,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>68:0</t>
+          <t>67:0</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4122,12 +4590,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>68:1</t>
+          <t>67:1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4145,12 +4613,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>69:0</t>
+          <t>68:0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4168,12 +4636,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>69:1</t>
+          <t>68:1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4191,12 +4659,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6:0</t>
+          <t>69:0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4214,12 +4682,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>6:1</t>
+          <t>69:1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4237,12 +4705,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>70:0</t>
+          <t>6:0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4260,12 +4728,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>70:1</t>
+          <t>6:1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4283,12 +4751,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>71:0</t>
+          <t>70:0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4306,12 +4774,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>71:1</t>
+          <t>70:1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4329,12 +4797,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>72:0</t>
+          <t>71:0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4352,12 +4820,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>72:1</t>
+          <t>71:1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4375,12 +4843,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>73:0</t>
+          <t>72:0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4398,12 +4866,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>73:1</t>
+          <t>72:1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4421,12 +4889,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>74:0</t>
+          <t>73:0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4444,12 +4912,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>74:1</t>
+          <t>73:1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4467,12 +4935,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>75:0</t>
+          <t>74:0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4490,12 +4958,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>75:1</t>
+          <t>74:1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4513,12 +4981,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>76:0</t>
+          <t>75:0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4536,12 +5004,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>76:1</t>
+          <t>75:1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4559,12 +5027,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>77:0</t>
+          <t>76:0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4582,12 +5050,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>77:1</t>
+          <t>76:1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4605,12 +5073,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>78:0</t>
+          <t>77:0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4628,12 +5096,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>78:1</t>
+          <t>77:1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4651,12 +5119,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>79:0</t>
+          <t>78:0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4674,12 +5142,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>79:1</t>
+          <t>78:1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4697,12 +5165,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>80:0</t>
+          <t>79:0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4720,12 +5188,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>80:1</t>
+          <t>79:1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4743,12 +5211,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>81:0</t>
+          <t>7:0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4766,12 +5234,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>81:1</t>
+          <t>7:1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4789,12 +5257,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>82:0</t>
+          <t>80:0</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4812,12 +5280,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>82:1</t>
+          <t>80:1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4835,12 +5303,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>83:0</t>
+          <t>81:0</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4858,12 +5326,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>83:1</t>
+          <t>81:1</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4881,12 +5349,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>84:0</t>
+          <t>82:0</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4904,12 +5372,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>84:1</t>
+          <t>82:1</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4927,12 +5395,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>85:0</t>
+          <t>83:0</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4950,12 +5418,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>85:1</t>
+          <t>83:1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4973,12 +5441,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>86:0</t>
+          <t>84:0</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4996,12 +5464,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>86:1</t>
+          <t>84:1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5019,12 +5487,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>87:0</t>
+          <t>85:0</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5042,12 +5510,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>87:1</t>
+          <t>85:1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5065,12 +5533,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>88:0</t>
+          <t>86:0</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5088,12 +5556,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>88:1</t>
+          <t>86:1</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5111,12 +5579,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>89:0</t>
+          <t>87:0</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5134,12 +5602,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>89:1</t>
+          <t>87:1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5157,12 +5625,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>8:0</t>
+          <t>88:0</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5180,12 +5648,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>8:1</t>
+          <t>88:1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5203,12 +5671,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>90:0</t>
+          <t>89:0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5226,12 +5694,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>90:1</t>
+          <t>89:1</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5249,12 +5717,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>91:0</t>
+          <t>8:0</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5272,12 +5740,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>91:1</t>
+          <t>8:1</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5295,12 +5763,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>92:0</t>
+          <t>90:0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5318,12 +5786,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>92:1</t>
+          <t>90:1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5341,12 +5809,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>93:0</t>
+          <t>91:0</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5364,12 +5832,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>93:1</t>
+          <t>91:1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5387,12 +5855,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>94:0</t>
+          <t>92:0</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5410,12 +5878,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>94:1</t>
+          <t>92:1</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5433,12 +5901,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>95:0</t>
+          <t>93:0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5456,12 +5924,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>95:1</t>
+          <t>93:1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5479,12 +5947,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>96:0</t>
+          <t>94:0</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5502,12 +5970,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>96:1</t>
+          <t>94:1</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5525,12 +5993,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>97:0</t>
+          <t>95:0</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5548,12 +6016,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>97:1</t>
+          <t>95:1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5571,12 +6039,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>98:0</t>
+          <t>96:0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5594,12 +6062,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>98:1</t>
+          <t>96:1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5617,12 +6085,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>99:0</t>
+          <t>97:0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5640,12 +6108,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>99:1</t>
+          <t>97:1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5663,12 +6131,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>9:0</t>
+          <t>98:0</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5686,12 +6154,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>9:1</t>
+          <t>98:1</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5702,6 +6170,98 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>99:0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>99:1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>9:0</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>9:1</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/out11.xlsx
+++ b/out11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xe-0/0/14</t>
+          <t>xe-0/0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xe-0/0/15</t>
+          <t>xe-0/0/30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xe-0/0/16</t>
+          <t>xe-0/0/31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>xe-0/0/17</t>
+          <t>xe-0/0/32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xe-0/0/18</t>
+          <t>xe-0/0/33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>xe-0/0/19</t>
+          <t>xe-0/0/34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>xe-0/0/20</t>
+          <t>xe-0/0/35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>xe-0/0/21</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>xe-0/0/22</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>xe-0/0/23</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>xe-0/0/24</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>xe-0/0/25</t>
+          <t>xe-0/0/40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>xe-0/0/26</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>xe-0/0/27</t>
+          <t>xe-0/0/42</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>xe-0/0/28</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>xe-0/0/29</t>
+          <t>xe-0/0/44</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>xe-0/0/30</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>xe-0/0/31</t>
+          <t>xe-0/0/46</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>xe-0/0/32</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>xe-0/0/33</t>
+          <t>xe-0/0/48</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:0</t>
+          <t>110:0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>xe-0/0/34</t>
+          <t>xe-0/0/0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:1</t>
+          <t>110:1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>xe-0/0/36</t>
+          <t>xe-0/0/34</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>110:0</t>
+          <t>111:0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>110:1</t>
+          <t>111:1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>xe-0/0/38</t>
+          <t>xe-0/0/42</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>111:0</t>
+          <t>112:0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>111:1</t>
+          <t>112:1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>xe-0/0/40</t>
+          <t>xe-0/0/44</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>112:0</t>
+          <t>22:0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>112:1</t>
+          <t>22:1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>xe-0/0/42</t>
+          <t>xe-0/0/46</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:0</t>
+          <t>25:0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:1</t>
+          <t>25:1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>xe-0/0/44</t>
+          <t>xe-0/0/48</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:0</t>
+          <t>30:0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-03-DAAS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:1</t>
+          <t>30:1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-03-DAAS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>xe-0/0/46</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:0</t>
+          <t>31:0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1606,12 +1606,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-03-DAAS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:1</t>
+          <t>31:1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>MEDE-CABA-H-03-DAAS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>xe-0/0/48</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:0</t>
+          <t>32:0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1674,9 +1674,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>xe-0/0/39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1684,12 +1696,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:1</t>
+          <t>32:1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1697,9 +1709,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>xe-0/0/40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1707,12 +1731,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:0</t>
+          <t>33:0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1720,9 +1744,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>xe-0/0/41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1730,12 +1766,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:1</t>
+          <t>33:1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1743,9 +1779,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>xe-0/0/42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1753,12 +1801,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19:0</t>
+          <t>34:0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1766,9 +1814,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>xe-0/0/43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1776,12 +1836,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19:1</t>
+          <t>34:1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1789,9 +1849,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>xe-0/0/44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1799,12 +1871,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:0</t>
+          <t>35:0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1812,9 +1884,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>xe-0/0/45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1822,12 +1906,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:1</t>
+          <t>35:1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1835,9 +1919,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>xe-0/0/46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1845,12 +1941,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21:0</t>
+          <t>36:0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1858,9 +1954,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>xe-0/0/47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1868,12 +1976,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>21:1</t>
+          <t>36:1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1881,9 +1989,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>xe-0/0/48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1891,12 +2011,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>22:0</t>
+          <t>37:0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1904,9 +2024,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>xe-0/0/5</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1914,12 +2046,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22:1</t>
+          <t>37:1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1927,9 +2059,21 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MEDE-CABA-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>xe-0/0/7</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1937,12 +2081,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23:0</t>
+          <t>38:0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1960,12 +2104,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>23:1</t>
+          <t>38:1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1983,12 +2127,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>24:0</t>
+          <t>39:0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2006,12 +2150,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>24:1</t>
+          <t>39:1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2029,12 +2173,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>25:0</t>
+          <t>40:0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2052,12 +2196,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>25:1</t>
+          <t>40:1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2075,12 +2219,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>26:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2098,12 +2242,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>26:1</t>
+          <t>41:1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2121,12 +2265,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>27:0</t>
+          <t>42:0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2144,12 +2288,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>27:1</t>
+          <t>42:1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2167,12 +2311,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>28:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2190,12 +2334,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>28:1</t>
+          <t>43:1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2213,12 +2357,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>29:0</t>
+          <t>44:0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2236,12 +2380,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>29:1</t>
+          <t>44:1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2259,12 +2403,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>30:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2282,12 +2426,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>30:1</t>
+          <t>45:1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2305,12 +2449,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31:0</t>
+          <t>46:0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2328,12 +2472,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31:1</t>
+          <t>46:1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2351,12 +2495,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>32:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2374,12 +2518,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>32:1</t>
+          <t>47:1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2397,12 +2541,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>33:0</t>
+          <t>48:0</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2420,12 +2564,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>33:1</t>
+          <t>48:1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2443,12 +2587,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>34:0</t>
+          <t>49:0</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2466,12 +2610,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>34:1</t>
+          <t>49:1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2489,12 +2633,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>35:0</t>
+          <t>50:0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2512,12 +2656,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>35:1</t>
+          <t>50:1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2535,12 +2679,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>36:0</t>
+          <t>51:0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2558,12 +2702,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>36:1</t>
+          <t>51:1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2581,12 +2725,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>37:0</t>
+          <t>52:0</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2604,12 +2748,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>37:1</t>
+          <t>52:1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2627,12 +2771,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>38:0</t>
+          <t>53:0</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2650,12 +2794,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>38:1</t>
+          <t>53:1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2673,12 +2817,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>39:0</t>
+          <t>54:0</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2696,12 +2840,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>39:1</t>
+          <t>54:1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2719,12 +2863,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>55:0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2742,12 +2886,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>55:1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2765,12 +2909,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>40:0</t>
+          <t>56:0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2788,12 +2932,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>40:1</t>
+          <t>56:1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,12 +2955,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>57:0</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2834,12 +2978,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>41:1</t>
+          <t>57:1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2857,12 +3001,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>42:0</t>
+          <t>58:0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2880,12 +3024,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>42:1</t>
+          <t>58:1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2903,12 +3047,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>59:0</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2926,12 +3070,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>43:1</t>
+          <t>59:1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2949,12 +3093,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>44:0</t>
+          <t>60:0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2972,12 +3116,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>44:1</t>
+          <t>60:1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2995,12 +3139,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>61:0</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3018,12 +3162,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>45:1</t>
+          <t>61:1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3041,12 +3185,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>46:0</t>
+          <t>62:0</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3064,12 +3208,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>46:1</t>
+          <t>62:1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3087,12 +3231,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>47:0</t>
+          <t>63:0</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3110,12 +3254,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>47:1</t>
+          <t>63:1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3133,12 +3277,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>48:0</t>
+          <t>64:0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3156,12 +3300,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>48:1</t>
+          <t>64:1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3179,12 +3323,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>49:0</t>
+          <t>65:0</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3202,12 +3346,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>49:1</t>
+          <t>65:1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3225,12 +3369,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4:0</t>
+          <t>66:0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3248,12 +3392,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4:1</t>
+          <t>66:1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3271,12 +3415,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>50:0</t>
+          <t>67:0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3294,12 +3438,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>50:1</t>
+          <t>67:1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3317,12 +3461,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>51:0</t>
+          <t>68:0</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3340,12 +3484,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>51:1</t>
+          <t>68:1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3363,12 +3507,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>52:0</t>
+          <t>69:0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3386,12 +3530,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>52:1</t>
+          <t>69:1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3409,12 +3553,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>53:0</t>
+          <t>70:0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3432,12 +3576,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>53:1</t>
+          <t>70:1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3455,12 +3599,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>54:0</t>
+          <t>71:0</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3478,12 +3622,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>54:1</t>
+          <t>71:1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3501,12 +3645,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>55:0</t>
+          <t>72:0</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3524,12 +3668,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>55:1</t>
+          <t>72:1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3547,12 +3691,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>56:0</t>
+          <t>73:0</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3570,12 +3714,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>56:1</t>
+          <t>73:1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3593,12 +3737,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>57:0</t>
+          <t>74:0</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3616,12 +3760,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>57:1</t>
+          <t>74:1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3639,12 +3783,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>58:0</t>
+          <t>75:0</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3662,12 +3806,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>58:1</t>
+          <t>75:1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3685,12 +3829,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>59:0</t>
+          <t>76:0</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3708,12 +3852,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>59:1</t>
+          <t>76:1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3731,12 +3875,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>60:0</t>
+          <t>77:0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3754,12 +3898,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>60:1</t>
+          <t>77:1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3777,12 +3921,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>61:0</t>
+          <t>78:0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3800,12 +3944,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>61:1</t>
+          <t>78:1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3823,12 +3967,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>62:0</t>
+          <t>79:0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3846,12 +3990,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>62:1</t>
+          <t>79:1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3869,12 +4013,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>63:0</t>
+          <t>80:0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3892,12 +4036,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>63:1</t>
+          <t>80:1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3915,12 +4059,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>64:0</t>
+          <t>81:0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3938,12 +4082,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>64:1</t>
+          <t>81:1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3961,12 +4105,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>65:0</t>
+          <t>82:0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3984,12 +4128,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>65:1</t>
+          <t>82:1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4007,12 +4151,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>66:0</t>
+          <t>83:0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4030,12 +4174,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>66:1</t>
+          <t>83:1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4053,12 +4197,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>67:0</t>
+          <t>84:0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4076,12 +4220,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>67:1</t>
+          <t>84:1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4099,12 +4243,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>68:0</t>
+          <t>85:0</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4122,12 +4266,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>68:1</t>
+          <t>85:1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4145,12 +4289,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>69:0</t>
+          <t>86:0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4168,12 +4312,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>69:1</t>
+          <t>86:1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4191,12 +4335,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6:0</t>
+          <t>87:0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4214,12 +4358,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>6:1</t>
+          <t>87:1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4237,12 +4381,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>70:0</t>
+          <t>88:0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4260,12 +4404,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>70:1</t>
+          <t>88:1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4283,12 +4427,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>71:0</t>
+          <t>89:0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4306,12 +4450,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>71:1</t>
+          <t>89:1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4329,12 +4473,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>72:0</t>
+          <t>90:0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4352,12 +4496,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>72:1</t>
+          <t>90:1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4375,12 +4519,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>73:0</t>
+          <t>91:0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4398,12 +4542,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>73:1</t>
+          <t>91:1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4421,12 +4565,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>74:0</t>
+          <t>92:0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4444,12 +4588,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>74:1</t>
+          <t>92:1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4467,12 +4611,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>75:0</t>
+          <t>93:0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4490,12 +4634,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>75:1</t>
+          <t>93:1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4513,12 +4657,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>76:0</t>
+          <t>94:0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4536,12 +4680,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>76:1</t>
+          <t>94:1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4559,12 +4703,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>77:0</t>
+          <t>95:0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4582,12 +4726,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>77:1</t>
+          <t>95:1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4605,12 +4749,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>78:0</t>
+          <t>96:0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4628,12 +4772,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>78:1</t>
+          <t>96:1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4651,12 +4795,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>79:0</t>
+          <t>97:0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4674,12 +4818,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>79:1</t>
+          <t>97:1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4697,12 +4841,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>80:0</t>
+          <t>98:0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4720,12 +4864,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>80:1</t>
+          <t>98:1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4743,12 +4887,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>81:0</t>
+          <t>99:0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4766,12 +4910,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>81:1</t>
+          <t>99:1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4782,926 +4926,6 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>82:0</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>82:1</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>83:0</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>83:1</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>84:0</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>84:1</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>85:0</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>85:1</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>86:0</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>86:1</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>87:0</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>87:1</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>88:0</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>88:1</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>89:0</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>89:1</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>8:0</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>8:1</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>90:0</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>90:1</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>91:0</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>91:1</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>92:0</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>92:1</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>93:0</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>93:1</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>94:0</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>94:1</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>95:0</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>95:1</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>96:0</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>96:1</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>97:0</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>97:1</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>98:0</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>98:1</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>99:0</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>99:1</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>9:0</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>9:1</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/out11.xlsx
+++ b/out11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xe-0/0/0</t>
+          <t>xe-0/0/14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xe-0/0/30</t>
+          <t>xe-0/0/15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xe-0/0/31</t>
+          <t>xe-0/0/16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>xe-0/0/32</t>
+          <t>xe-0/0/17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xe-0/0/33</t>
+          <t>xe-0/0/18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>xe-0/0/34</t>
+          <t>xe-0/0/19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>xe-0/0/35</t>
+          <t>xe-0/0/20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>xe-0/0/36</t>
+          <t>xe-0/0/21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>xe-0/0/38</t>
+          <t>xe-0/0/23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>xe-0/0/40</t>
+          <t>xe-0/0/25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/26</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>xe-0/0/42</t>
+          <t>xe-0/0/27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>xe-0/0/44</t>
+          <t>xe-0/0/29</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>xe-0/0/46</t>
+          <t>xe-0/0/31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/32</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>xe-0/0/48</t>
+          <t>xe-0/0/33</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>110:0</t>
+          <t>10:0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>xe-0/0/0</t>
+          <t>xe-0/0/34</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>110:1</t>
+          <t>10:1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>xe-0/0/34</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>111:0</t>
+          <t>110:0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>111:1</t>
+          <t>110:1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>xe-0/0/42</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>112:0</t>
+          <t>111:0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>112:1</t>
+          <t>111:1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>xe-0/0/44</t>
+          <t>xe-0/0/40</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22:0</t>
+          <t>112:0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>22:1</t>
+          <t>112:1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>xe-0/0/46</t>
+          <t>xe-0/0/42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>25:0</t>
+          <t>14:0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>25:1</t>
+          <t>14:1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>xe-0/0/48</t>
+          <t>xe-0/0/44</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30:0</t>
+          <t>15:0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>xe-0/0/0</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30:1</t>
+          <t>15:1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>xe-0/0/36</t>
+          <t>xe-0/0/46</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31:0</t>
+          <t>16:0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1606,12 +1606,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31:1</t>
+          <t>16:1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>xe-0/0/38</t>
+          <t>xe-0/0/48</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>32:0</t>
+          <t>17:0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1674,21 +1674,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>xe-0/0/39</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1696,12 +1684,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>32:1</t>
+          <t>17:1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1709,21 +1697,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>xe-0/0/40</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1731,12 +1707,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>33:0</t>
+          <t>18:0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1744,21 +1720,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>xe-0/0/41</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1766,12 +1730,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>33:1</t>
+          <t>18:1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1779,21 +1743,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>xe-0/0/42</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1801,12 +1753,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>34:0</t>
+          <t>19:0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1814,21 +1766,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>xe-0/0/43</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1836,12 +1776,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>34:1</t>
+          <t>19:1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1849,21 +1789,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>xe-0/0/44</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1871,12 +1799,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>35:0</t>
+          <t>20:0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1884,21 +1812,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>xe-0/0/45</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1906,12 +1822,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>35:1</t>
+          <t>20:1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1919,21 +1835,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>xe-0/0/46</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1941,12 +1845,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>36:0</t>
+          <t>21:0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1954,21 +1858,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>xe-0/0/47</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1976,12 +1868,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>36:1</t>
+          <t>21:1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1989,21 +1881,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>xe-0/0/48</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2011,12 +1891,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>37:0</t>
+          <t>22:0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2024,21 +1904,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>xe-0/0/5</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2046,12 +1914,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>37:1</t>
+          <t>22:1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2059,21 +1927,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>xe-0/0/7</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2081,12 +1937,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>38:0</t>
+          <t>23:0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2104,12 +1960,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>38:1</t>
+          <t>23:1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2127,12 +1983,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>39:0</t>
+          <t>24:0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2150,12 +2006,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>39:1</t>
+          <t>24:1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2173,12 +2029,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>40:0</t>
+          <t>25:0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2196,12 +2052,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>40:1</t>
+          <t>25:1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2219,12 +2075,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>26:0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2242,12 +2098,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>41:1</t>
+          <t>26:1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2265,12 +2121,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>42:0</t>
+          <t>27:0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2288,12 +2144,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>42:1</t>
+          <t>27:1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2311,12 +2167,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>28:0</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2334,12 +2190,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>43:1</t>
+          <t>28:1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2357,12 +2213,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>44:0</t>
+          <t>29:0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2380,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>44:1</t>
+          <t>29:1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2403,12 +2259,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>30:0</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2426,12 +2282,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>45:1</t>
+          <t>30:1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2449,12 +2305,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>46:0</t>
+          <t>31:0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2472,12 +2328,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>46:1</t>
+          <t>31:1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2495,12 +2351,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>47:0</t>
+          <t>32:0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2518,12 +2374,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>47:1</t>
+          <t>32:1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2541,12 +2397,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>48:0</t>
+          <t>33:0</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2564,12 +2420,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>48:1</t>
+          <t>33:1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2587,12 +2443,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>49:0</t>
+          <t>34:0</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2610,12 +2466,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>49:1</t>
+          <t>34:1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2633,12 +2489,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>50:0</t>
+          <t>35:0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2656,12 +2512,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>50:1</t>
+          <t>35:1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2679,12 +2535,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>51:0</t>
+          <t>36:0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2702,12 +2558,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>51:1</t>
+          <t>36:1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2725,12 +2581,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>52:0</t>
+          <t>37:0</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2748,12 +2604,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>52:1</t>
+          <t>37:1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2771,12 +2627,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>53:0</t>
+          <t>38:0</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2794,12 +2650,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>53:1</t>
+          <t>38:1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2817,12 +2673,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>54:0</t>
+          <t>39:0</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2840,12 +2696,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>54:1</t>
+          <t>39:1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2863,12 +2719,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>55:0</t>
+          <t>3:0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2886,12 +2742,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>55:1</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2909,12 +2765,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>56:0</t>
+          <t>40:0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2932,12 +2788,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>56:1</t>
+          <t>40:1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2955,12 +2811,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>57:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2978,12 +2834,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>57:1</t>
+          <t>41:1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3001,12 +2857,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>58:0</t>
+          <t>42:0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3024,12 +2880,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>58:1</t>
+          <t>42:1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3047,12 +2903,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>59:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3070,12 +2926,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>59:1</t>
+          <t>43:1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3093,12 +2949,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>60:0</t>
+          <t>44:0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3116,12 +2972,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>60:1</t>
+          <t>44:1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3139,12 +2995,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>61:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3162,12 +3018,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>61:1</t>
+          <t>45:1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3185,12 +3041,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>62:0</t>
+          <t>46:0</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3208,12 +3064,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>62:1</t>
+          <t>46:1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3231,12 +3087,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>63:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3254,12 +3110,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>63:1</t>
+          <t>47:1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3277,12 +3133,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>64:0</t>
+          <t>48:0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3300,12 +3156,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>64:1</t>
+          <t>48:1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3323,12 +3179,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>65:0</t>
+          <t>49:0</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3346,12 +3202,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>65:1</t>
+          <t>49:1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3369,12 +3225,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>66:0</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3392,12 +3248,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>66:1</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3415,12 +3271,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>67:0</t>
+          <t>50:0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3438,12 +3294,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>67:1</t>
+          <t>50:1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3461,12 +3317,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>68:0</t>
+          <t>51:0</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3484,12 +3340,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>68:1</t>
+          <t>51:1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3507,12 +3363,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>69:0</t>
+          <t>52:0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3530,12 +3386,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>69:1</t>
+          <t>52:1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3553,12 +3409,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>70:0</t>
+          <t>53:0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3576,12 +3432,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>70:1</t>
+          <t>53:1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3599,12 +3455,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>71:0</t>
+          <t>54:0</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3622,12 +3478,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>71:1</t>
+          <t>54:1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3645,12 +3501,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>72:0</t>
+          <t>55:0</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3668,12 +3524,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>72:1</t>
+          <t>55:1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3691,12 +3547,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>73:0</t>
+          <t>56:0</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3714,12 +3570,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>73:1</t>
+          <t>56:1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3737,12 +3593,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>74:0</t>
+          <t>57:0</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3760,12 +3616,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>74:1</t>
+          <t>57:1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3783,12 +3639,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>75:0</t>
+          <t>58:0</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3806,12 +3662,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>75:1</t>
+          <t>58:1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3829,12 +3685,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>76:0</t>
+          <t>59:0</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3852,12 +3708,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>76:1</t>
+          <t>59:1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3875,12 +3731,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>77:0</t>
+          <t>60:0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3898,12 +3754,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>77:1</t>
+          <t>60:1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3921,12 +3777,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>78:0</t>
+          <t>61:0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3944,12 +3800,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>78:1</t>
+          <t>61:1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3967,12 +3823,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>79:0</t>
+          <t>62:0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3990,12 +3846,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>79:1</t>
+          <t>62:1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4013,12 +3869,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>80:0</t>
+          <t>63:0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4036,12 +3892,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>80:1</t>
+          <t>63:1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4059,12 +3915,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>81:0</t>
+          <t>64:0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4082,12 +3938,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>81:1</t>
+          <t>64:1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4105,12 +3961,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>82:0</t>
+          <t>65:0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4128,12 +3984,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>82:1</t>
+          <t>65:1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4151,12 +4007,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>83:0</t>
+          <t>66:0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4174,12 +4030,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>83:1</t>
+          <t>66:1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4197,12 +4053,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>84:0</t>
+          <t>67:0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4220,12 +4076,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>84:1</t>
+          <t>67:1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4243,12 +4099,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>85:0</t>
+          <t>68:0</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4266,12 +4122,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>85:1</t>
+          <t>68:1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4289,12 +4145,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>86:0</t>
+          <t>69:0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4312,12 +4168,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>86:1</t>
+          <t>69:1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4335,12 +4191,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>87:0</t>
+          <t>6:0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4358,12 +4214,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>87:1</t>
+          <t>6:1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4381,12 +4237,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>88:0</t>
+          <t>70:0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4404,12 +4260,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>88:1</t>
+          <t>70:1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4427,12 +4283,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>89:0</t>
+          <t>71:0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4450,12 +4306,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>89:1</t>
+          <t>71:1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4473,12 +4329,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>90:0</t>
+          <t>72:0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4496,12 +4352,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>90:1</t>
+          <t>72:1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4519,12 +4375,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>91:0</t>
+          <t>73:0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4542,12 +4398,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>91:1</t>
+          <t>73:1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4565,12 +4421,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>92:0</t>
+          <t>74:0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4588,12 +4444,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>92:1</t>
+          <t>74:1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4611,12 +4467,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>93:0</t>
+          <t>75:0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4634,12 +4490,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>93:1</t>
+          <t>75:1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4657,12 +4513,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>94:0</t>
+          <t>76:0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4680,12 +4536,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>94:1</t>
+          <t>76:1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4703,12 +4559,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>95:0</t>
+          <t>77:0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4726,12 +4582,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>95:1</t>
+          <t>77:1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4749,12 +4605,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>96:0</t>
+          <t>78:0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4772,12 +4628,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>96:1</t>
+          <t>78:1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4795,12 +4651,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>97:0</t>
+          <t>79:0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4818,12 +4674,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>97:1</t>
+          <t>79:1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4841,12 +4697,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>98:0</t>
+          <t>80:0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4864,12 +4720,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>98:1</t>
+          <t>80:1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4887,12 +4743,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>99:0</t>
+          <t>81:0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4910,12 +4766,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>99:1</t>
+          <t>81:1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4926,6 +4782,926 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>82:0</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>82:1</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>83:0</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>83:1</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>84:0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>84:1</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>85:0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>85:1</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>86:0</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>86:1</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>87:0</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>87:1</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>88:0</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>88:1</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>89:0</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>89:1</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>8:0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>8:1</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>90:0</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>90:1</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>91:0</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>91:1</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>92:0</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>92:1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>93:0</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>93:1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>94:0</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>94:1</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>95:0</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>95:1</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>96:0</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>96:1</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>97:0</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>97:1</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>98:0</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>98:1</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>99:0</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>99:1</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>9:0</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>9:1</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/out11.xlsx
+++ b/out11.xlsx
@@ -1534,21 +1534,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>xe-0/0/0</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1569,21 +1557,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>xe-0/0/36</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1604,21 +1580,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>xe-0/0/37</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1639,21 +1603,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>xe-0/0/38</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1674,21 +1626,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>xe-0/0/39</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1709,21 +1649,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>xe-0/0/40</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1744,21 +1672,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>xe-0/0/41</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1779,21 +1695,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>xe-0/0/42</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1814,21 +1718,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>xe-0/0/43</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1849,21 +1741,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>xe-0/0/44</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1884,21 +1764,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>xe-0/0/45</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1919,21 +1787,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>xe-0/0/46</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1954,21 +1810,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>xe-0/0/47</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1989,21 +1833,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>xe-0/0/48</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2024,21 +1856,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>xe-0/0/5</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2059,21 +1879,9 @@
           <t>unlocked</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>xe-0/0/7</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
